--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -389,20 +389,18 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.704545454545455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.294117647058824</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.625</v>
-      </c>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -389,16 +389,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392857142857143</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.704545454545455</v>
+        <v>0.647727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.596774193548387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.425287356321839</v>
       </c>
       <c r="F2"/>
     </row>

--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Sharing half of global tax with low-income</t>
@@ -383,24 +386,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.436241610738255</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.647727272727273</v>
+        <v>0.531242345196167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.596774193548387</v>
+        <v>0.430129044063929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.425287356321839</v>
-      </c>
-      <c r="F2"/>
+        <v>0.682009868105402</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.618350510480896</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.404104528343317</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -394,21 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.531242345196167</v>
+        <v>0.525967871532585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.430129044063929</v>
+        <v>0.451804139298444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.682009868105402</v>
+        <v>0.599480117818625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.618350510480896</v>
+        <v>0.614120575286154</v>
       </c>
       <c r="G2" t="n">
-        <v>0.404104528343317</v>
+        <v>0.430046970759206</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income</t>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
   </si>
 </sst>
 </file>
@@ -394,23 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.528107960158319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.525967871532585</v>
+        <v>0.522965339675232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.451804139298444</v>
+        <v>0.451861047881886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.599480117818625</v>
+        <v>0.599512592705947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.614120575286154</v>
+        <v>0.608362830388362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.430046970759206</v>
+        <v>0.430033412453768</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.528107960158319</v>
+        <v>0.550489493329875</v>
       </c>
       <c r="C2" t="n">
         <v>0.522965339675232</v>
